--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -190,54 +256,54 @@
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="14.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.36677106744906141</v>
+        <v>0.36775089808887762</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30996336229734978</v>
+        <v>0.31070882505890624</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.05194452730427479</v>
+        <v>-0.052029448964064612</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0051508866630954556</v>
+        <v>-0.0051978987094402282</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00089731094963311771</v>
+        <v>0.00082914131040484206</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0085710878058502197</v>
+        <v>0.0085718782720584988</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0019373440872479163</v>
+        <v>0.0019378279952973424</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.015058955622026781</v>
+        <v>-0.015094500075298823</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0039409215949541276</v>
+        <v>0.0039409271410715818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27053286002715682</v>
+        <v>0.27187996299953576</v>
       </c>
       <c r="C4" s="0">
-        <v>0.011435325912799036</v>
+        <v>0.012017469515547287</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0007538958187391047</v>
+        <v>0.00075176917537729331</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0014784742419121978</v>
+        <v>0.0014755458570587625</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0019185919158566862</v>
+        <v>0.0019163970598987971</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.054836168709500213</v>
+        <v>-0.05482011483876046</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00090520575696817008</v>
+        <v>-0.00089449689541780679</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00072458430696842324</v>
+        <v>0.00072456806692566822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40068302588100341</v>
+        <v>0.40293066806674943</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23261529026856861</v>
+        <v>0.23503872982418064</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.048602917608686742</v>
+        <v>-0.049886005970383632</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0051883905593302854</v>
+        <v>-0.0051623268022289292</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.019048594486363611</v>
+        <v>-0.019307534856168124</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.013800834961776563</v>
+        <v>-0.013823705237216703</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0012623548341158962</v>
+        <v>0.0012582625187487829</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.020054054946539602</v>
+        <v>-0.020034016254521919</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0029673133138589103</v>
+        <v>0.0029673018448035382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.50883279156201988</v>
+        <v>0.50885780067438746</v>
       </c>
       <c r="C6" s="0">
-        <v>0.070967044986657096</v>
+        <v>0.068574034758510538</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0038811533651045846</v>
+        <v>-0.0038818082460685406</v>
       </c>
       <c r="F6" s="0">
-        <v>0.010454976436633845</v>
+        <v>0.010468257270553966</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0024024350606891599</v>
+        <v>0.0025024174116643236</v>
       </c>
       <c r="I6" s="0">
-        <v>0.026787962484826219</v>
+        <v>0.02684572627044688</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0014185000773147549</v>
+        <v>0.0014185051425308903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53166947455663638</v>
+        <v>0.53046260936001444</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.007955125180821164</v>
+        <v>0.0076678819742410018</v>
       </c>
       <c r="E7" s="0">
-        <v>0.003737530751912856</v>
+        <v>0.0037430698013564767</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.03574218741920273</v>
+        <v>-0.036720277191821332</v>
       </c>
       <c r="G7" s="0">
-        <v>0.015259902588007936</v>
+        <v>0.015288261772852182</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0023844187281607926</v>
+        <v>0.002383986763766058</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.029241893164916433</v>
+        <v>0.02924188556523255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12154602511154222</v>
+        <v>0.12126056514268405</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.3776632390800797</v>
+        <v>-0.37691350618635761</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0012405257058790745</v>
+        <v>0.0012409036482397575</v>
       </c>
       <c r="F8" s="0">
-        <v>0.025232712091613662</v>
+        <v>0.025245661054769008</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0029925358620045651</v>
+        <v>-0.0029884890202639116</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.05434523224306638</v>
+        <v>-0.054191029674182156</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0015956800574362662</v>
+        <v>-0.0015955840395355247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10513260851362144</v>
+        <v>0.1044542448576079</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.062375703584574255</v>
+        <v>-0.062721160426631117</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.028642020335521962</v>
+        <v>-0.02871879040404976</v>
       </c>
       <c r="F9" s="0">
-        <v>0.065235607873935564</v>
+        <v>0.065364618164095889</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0034730025597758682</v>
+        <v>-0.0035558674774664708</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0010739962596223872</v>
+        <v>-0.0011019096173723729</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0055652744604466143</v>
+        <v>0.0055763609541047542</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0083504238071915038</v>
+        <v>0.0083504285222429364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.15033690699325453</v>
+        <v>0.15331378072511698</v>
       </c>
       <c r="C10" s="0">
-        <v>0.063034572836359382</v>
+        <v>0.066778669620288139</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.001412025965304607</v>
+        <v>-0.0014123034746892024</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0013269067921906482</v>
+        <v>-0.0013248142339984724</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00058716428311776712</v>
+        <v>-0.00059026197001632163</v>
       </c>
       <c r="I10" s="0">
-        <v>0.014818610227675517</v>
+        <v>0.014649058654336135</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.025553000132575492</v>
+        <v>-0.02547112932632702</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0037697874112132962</v>
+        <v>-0.0037696834020841813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.52709543705640172</v>
+        <v>0.53215378043421091</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.30995388921250117</v>
+        <v>0.31090022987364074</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0016885205847479174</v>
+        <v>0.001852490921573901</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0079564424905146439</v>
+        <v>0.0087119530468267627</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0022801078289265636</v>
+        <v>-0.0022551599842297486</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00010641583148455219</v>
+        <v>0.00015015768880868231</v>
       </c>
       <c r="I11" s="0">
-        <v>0.095575669644819547</v>
+        <v>0.095722632884793823</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.036242299871994066</v>
+        <v>-0.036242304722320262</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.21821493273271134</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.24862434892858776</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.00011456901478350612</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.00062946641590630177</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00076740864065150387</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.043709003349487054</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.02009405135208342</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,17 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="15.64453125" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="14.64453125" customWidth="true"/>
     <col min="10" max="10" width="16.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.36775089808887762</v>
+        <v>0.3674179386921686</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31070882505890624</v>
+        <v>0.31003317054859397</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.052029448964064612</v>
+        <v>-0.052502852756249309</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0051978987094402282</v>
+        <v>-0.0051651181997270628</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00082914131040484206</v>
+        <v>0.00088600850943418047</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0085718782720584988</v>
+        <v>0.0086076074377909716</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0019378279952973424</v>
+        <v>0.0019369088874282947</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.015094500075298823</v>
+        <v>-0.015088256887348786</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0039409271410715818</v>
+        <v>0.0039409348650971121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.27187996299953576</v>
+        <v>0.27363520512168954</v>
       </c>
       <c r="C4" s="0">
-        <v>0.012017469515547287</v>
+        <v>0.01439686159515843</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00075176917537729331</v>
+        <v>0.00075229784255509023</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0014755458570587625</v>
+        <v>0.0014580802614060314</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0019163970598987971</v>
+        <v>0.0018924475104036352</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.05482011483876046</v>
+        <v>-0.054739990991548498</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.00089449689541780679</v>
+        <v>-0.00088217199016606183</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00072456806692566822</v>
+        <v>0.00072451034528692171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.40293066806674943</v>
+        <v>0.40081539251315679</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23503872982418064</v>
+        <v>0.23056787272000837</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.049886005970383632</v>
+        <v>-0.049260654504960096</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0051623268022289292</v>
+        <v>-0.0052446248425800368</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.019307534856168124</v>
+        <v>-0.019186741039801204</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.013823705237216703</v>
+        <v>-0.013914770871252445</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0012582625187487829</v>
+        <v>0.0012528847745565126</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.020034016254521919</v>
+        <v>-0.020001155118623902</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0029673018448035382</v>
+        <v>0.0029673762741200815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.50885780067438746</v>
+        <v>0.51303471059370565</v>
       </c>
       <c r="C6" s="0">
-        <v>0.068574034758510538</v>
+        <v>0.074655510126659094</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0038818082460685406</v>
+        <v>-0.0038821863780982777</v>
       </c>
       <c r="F6" s="0">
-        <v>0.010468257270553966</v>
+        <v>0.010516354744535621</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0025024174116643236</v>
+        <v>0.0026386282187241474</v>
       </c>
       <c r="I6" s="0">
-        <v>0.02684572627044688</v>
+        <v>0.02687261442464587</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0014185051425308903</v>
+        <v>0.0014183969440824118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53046260936001444</v>
+        <v>0.53461886414114967</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0076678819742410018</v>
+        <v>0.0076296639478800887</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0037430698013564767</v>
+        <v>0.0039040292840053009</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.036720277191821332</v>
+        <v>-0.036878886211037305</v>
       </c>
       <c r="G7" s="0">
-        <v>0.015288261772852182</v>
+        <v>0.015351590804267488</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.002383986763766058</v>
+        <v>0.0023358637843078922</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.02924188556523255</v>
+        <v>0.029241891938020514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12126056514268405</v>
+        <v>0.11318055319030576</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.37691350618635761</v>
+        <v>-0.38938218268812586</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0012409036482397575</v>
+        <v>0.0012423034215313497</v>
       </c>
       <c r="F8" s="0">
-        <v>0.025245661054769008</v>
+        <v>0.025227987394641653</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0029884890202639116</v>
+        <v>-0.0029312494195241415</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.054191029674182156</v>
+        <v>-0.053999611042822464</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0015955840395355247</v>
+        <v>-0.0015955586165444791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.1044542448576079</v>
+        <v>0.095815141744233778</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.062721160426631117</v>
+        <v>-0.06283611415647096</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.02871879040404976</v>
+        <v>-0.028886485141734971</v>
       </c>
       <c r="F9" s="0">
-        <v>0.065364618164095889</v>
+        <v>0.065044506026740445</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0035558674774664708</v>
+        <v>-0.0034450932616161486</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0011019096173723729</v>
+        <v>-0.0011763681153172645</v>
       </c>
       <c r="I9" s="0">
-        <v>0.0055763609541047542</v>
+        <v>0.0055837266884008535</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0083504285222429364</v>
+        <v>0.0083504165139260678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.15331378072511698</v>
+        <v>0.14607320565818133</v>
       </c>
       <c r="C10" s="0">
-        <v>0.066778669620288139</v>
+        <v>0.067702281850129165</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0014123034746892024</v>
+        <v>-0.0014117436750621835</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0013248142339984724</v>
+        <v>-0.0013487500080400982</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00059026197001632163</v>
+        <v>-0.00060078099707289222</v>
       </c>
       <c r="I10" s="0">
-        <v>0.014649058654336135</v>
+        <v>0.014814377773826822</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.02547112932632702</v>
+        <v>-0.025127592909095029</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0037696834020841813</v>
+        <v>-0.0037697281207382249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.53215378043421091</v>
+        <v>0.52902934253696199</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.31090022987364074</v>
+        <v>0.31308363017363844</v>
       </c>
       <c r="E11" s="0">
-        <v>0.001852490921573901</v>
+        <v>0.0020071626353126209</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0087119530468267627</v>
+        <v>0.0094225205929340614</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0022551599842297486</v>
+        <v>-0.0021455404216487537</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00015015768880868231</v>
+        <v>0.00016964637127943709</v>
       </c>
       <c r="I11" s="0">
-        <v>0.095722632884793823</v>
+        <v>0.096661059979350886</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.036242304722320262</v>
+        <v>-0.036242342452086018</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.21821493273271134</v>
+        <v>0.1729998134812368</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.24862434892858776</v>
+        <v>-0.28433019405859994</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.00011456901478350612</v>
+        <v>-4.8618418503438313e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.00062946641590630177</v>
+        <v>-0.022098994298984393</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00076740864065150387</v>
+        <v>-0.0088740147867146409</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.043709003349487054</v>
+        <v>-0.021389671376763082</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.02009405135208342</v>
+        <v>-0.019288036116159701</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.27225147421621593</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.18513565367703055</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.024362884578738201</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.05984915492507125</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0030351640772403217</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0030457917525195245</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.0060791648778826994</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.24281125151251473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.27371205215282429</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.072979234900347648</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.0007838256685866145</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.014253666598752957</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00821648527581351</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.048009314769411976</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00025536465117420581</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,14 +463,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.64453125" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3674179386921686</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.31003317054859397</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.27363520512168954</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.40081539251315679</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.51303471059370565</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.53461886414114967</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.11318055319030576</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.095815141744233778</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.14607320565818133</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.52902934253696199</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.1729998134812368</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.27225147421621593</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.27371205215282429</v>
+        <v>0.30039147699496227</v>
       </c>
       <c r="C14" s="0">
-        <v>0.072979234900347648</v>
+        <v>0.0893473181757619</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.0007838256685866145</v>
+        <v>-0.00079566714491113356</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.014253666598752957</v>
+        <v>-0.014835135918570653</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00821648527581351</v>
+        <v>-0.012847478583462441</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.048009314769411976</v>
+        <v>-0.018898837479210374</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00025536465117420581</v>
+        <v>-0.013830196270860962</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.1868773709888723</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.31382842571103747</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.031170226306186335</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.036068488374014482</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.004828740080187386</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.18316742442081263</v>
       </c>
     </row>
   </sheetData>
